--- a/public/reports/surveys/Report.xlsx
+++ b/public/reports/surveys/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t xml:space="preserve">Branch </t>
   </si>
@@ -38,12 +38,24 @@
     <t>Excellent</t>
   </si>
   <si>
+    <t>2017-02-07 14:17:34</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>2017-02-07 14:17:27</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>2017-02-07 14:17:17</t>
+  </si>
+  <si>
     <t>2017-02-07 06:28:38</t>
   </si>
   <si>
-    <t>Very Good</t>
-  </si>
-  <si>
     <t>2017-02-07 06:27:48</t>
   </si>
   <si>
@@ -51,9 +63,6 @@
   </si>
   <si>
     <t>2017-02-07 06:27:40</t>
-  </si>
-  <si>
-    <t>Good</t>
   </si>
   <si>
     <t>2017-02-07 06:27:30</t>
@@ -432,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D1" sqref="D1"/>
@@ -510,10 +519,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -524,10 +533,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -538,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -552,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -566,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -580,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -594,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -608,10 +617,52 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/public/reports/surveys/Report.xlsx
+++ b/public/reports/surveys/Report.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">Questionaire </t>
+  </si>
   <si>
     <t xml:space="preserve">Branch </t>
   </si>
@@ -26,9 +29,15 @@
     <t xml:space="preserve">Answer </t>
   </si>
   <si>
+    <t xml:space="preserve">Score </t>
+  </si>
+  <si>
     <t xml:space="preserve">Date </t>
   </si>
   <si>
+    <t>Quality Service Survey</t>
+  </si>
+  <si>
     <t>Spintex</t>
   </si>
   <si>
@@ -41,49 +50,49 @@
     <t>2017-02-07 14:17:34</t>
   </si>
   <si>
+    <t>2017-02-07 06:28:38</t>
+  </si>
+  <si>
+    <t>2017-02-07 06:28:23</t>
+  </si>
+  <si>
+    <t>2017-02-07 06:28:08</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>2017-02-07 14:17:17</t>
+  </si>
+  <si>
+    <t>2017-02-07 06:27:48</t>
+  </si>
+  <si>
+    <t>2017-02-07 06:28:31</t>
+  </si>
+  <si>
+    <t>2017-02-07 06:28:02</t>
+  </si>
+  <si>
     <t>Good</t>
   </si>
   <si>
     <t>2017-02-07 14:17:27</t>
   </si>
   <si>
-    <t>Very Good</t>
-  </si>
-  <si>
-    <t>2017-02-07 14:17:17</t>
-  </si>
-  <si>
-    <t>2017-02-07 06:28:38</t>
-  </si>
-  <si>
-    <t>2017-02-07 06:27:48</t>
+    <t>2017-02-07 06:27:30</t>
+  </si>
+  <si>
+    <t>2017-02-07 06:26:29</t>
+  </si>
+  <si>
+    <t>2017-02-07 06:28:17</t>
   </si>
   <si>
     <t>Bad</t>
   </si>
   <si>
     <t>2017-02-07 06:27:40</t>
-  </si>
-  <si>
-    <t>2017-02-07 06:27:30</t>
-  </si>
-  <si>
-    <t>2017-02-07 06:26:29</t>
-  </si>
-  <si>
-    <t>2017-02-07 06:28:31</t>
-  </si>
-  <si>
-    <t>2017-02-07 06:28:23</t>
-  </si>
-  <si>
-    <t>2017-02-07 06:28:17</t>
-  </si>
-  <si>
-    <t>2017-02-07 06:28:08</t>
-  </si>
-  <si>
-    <t>2017-02-07 06:28:02</t>
   </si>
   <si>
     <t>Poor</t>
@@ -441,21 +450,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.997559" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="38.847656" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,27 +479,39 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -496,173 +519,251 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
